--- a/output/ils_Data_40_Salidas_composición_zonas_heterogéneas.xlsx
+++ b/output/ils_Data_40_Salidas_composición_zonas_heterogéneas.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>548.0966666666667</v>
+        <v>552.8466666666666</v>
       </c>
     </row>
   </sheetData>
@@ -512,7 +512,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Pedido_19</t>
+          <t>Pedido_3</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -524,7 +524,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Pedido_10</t>
+          <t>Pedido_19</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -536,7 +536,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Pedido_38</t>
+          <t>Pedido_5</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -548,7 +548,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Pedido_11</t>
+          <t>Pedido_16</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -560,7 +560,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Pedido_1</t>
+          <t>Pedido_2</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -572,7 +572,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Pedido_31</t>
+          <t>Pedido_7</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -584,7 +584,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Pedido_37</t>
+          <t>Pedido_28</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -596,7 +596,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Pedido_35</t>
+          <t>Pedido_9</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -608,7 +608,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Pedido_16</t>
+          <t>Pedido_14</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -620,7 +620,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Pedido_6</t>
+          <t>Pedido_17</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -632,7 +632,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Pedido_36</t>
+          <t>Pedido_8</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -644,7 +644,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Pedido_8</t>
+          <t>Pedido_37</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -656,7 +656,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Pedido_39</t>
+          <t>Pedido_23</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -668,7 +668,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Pedido_18</t>
+          <t>Pedido_35</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -680,7 +680,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Pedido_3</t>
+          <t>Pedido_25</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -692,7 +692,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Pedido_2</t>
+          <t>Pedido_27</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -704,7 +704,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Pedido_12</t>
+          <t>Pedido_40</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -716,7 +716,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Pedido_14</t>
+          <t>Pedido_34</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -728,7 +728,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Pedido_28</t>
+          <t>Pedido_10</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -740,7 +740,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Pedido_29</t>
+          <t>Pedido_12</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -752,7 +752,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Pedido_21</t>
+          <t>Pedido_39</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -764,7 +764,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Pedido_4</t>
+          <t>Pedido_13</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -776,7 +776,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Pedido_33</t>
+          <t>Pedido_11</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -788,7 +788,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Pedido_40</t>
+          <t>Pedido_26</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -800,7 +800,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Pedido_7</t>
+          <t>Pedido_22</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -812,7 +812,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Pedido_17</t>
+          <t>Pedido_32</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -824,7 +824,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Pedido_26</t>
+          <t>Pedido_38</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -836,7 +836,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Pedido_32</t>
+          <t>Pedido_18</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -848,7 +848,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Pedido_20</t>
+          <t>Pedido_33</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -860,7 +860,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Pedido_23</t>
+          <t>Pedido_20</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -872,7 +872,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Pedido_27</t>
+          <t>Pedido_15</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -884,7 +884,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Pedido_22</t>
+          <t>Pedido_31</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -896,7 +896,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Pedido_24</t>
+          <t>Pedido_4</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -908,7 +908,7 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Pedido_34</t>
+          <t>Pedido_29</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -920,7 +920,7 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Pedido_13</t>
+          <t>Pedido_1</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -932,7 +932,7 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Pedido_30</t>
+          <t>Pedido_6</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -944,7 +944,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Pedido_9</t>
+          <t>Pedido_30</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -956,7 +956,7 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Pedido_25</t>
+          <t>Pedido_21</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -968,7 +968,7 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Pedido_5</t>
+          <t>Pedido_36</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -980,7 +980,7 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Pedido_15</t>
+          <t>Pedido_24</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -1031,7 +1031,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>548.0966666666667</v>
+        <v>552.8466666666666</v>
       </c>
     </row>
     <row r="3">
@@ -1041,7 +1041,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>544.4761904761906</v>
+        <v>538.3073593073593</v>
       </c>
     </row>
   </sheetData>
